--- a/data/elections/not_imputed/Congressional Elections (2020).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2020).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BFDDC3-0D24-0A48-86E7-3640978FC1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7C822B-01C5-A343-8440-B2F88648223C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="580" windowWidth="23580" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="580" windowWidth="23580" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>PA</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Alabama</t>
@@ -790,13 +787,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A51"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,50 +811,50 @@
     <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2020</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="11">
         <v>1416012</v>
@@ -886,15 +883,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2020</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="11">
         <v>192126</v>
@@ -923,12 +920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2020</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -960,15 +957,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2020</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="11">
         <v>828266</v>
@@ -997,15 +994,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2020</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="11">
         <v>5640667</v>
@@ -1034,15 +1031,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2020</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" s="11">
         <v>1378248</v>
@@ -1071,15 +1068,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2020</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" s="11">
         <v>676650</v>
@@ -1108,15 +1105,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2020</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="11">
         <v>196392</v>
@@ -1145,12 +1142,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2020</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1181,19 +1178,16 @@
       <c r="K10" s="6">
         <v>27</v>
       </c>
-      <c r="L10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2020</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
       </c>
       <c r="D11" s="11">
         <v>2490396</v>
@@ -1222,15 +1216,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
       </c>
       <c r="D12" s="11">
         <v>155215</v>
@@ -1259,15 +1253,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2020</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
       </c>
       <c r="D13" s="11">
         <v>561405</v>
@@ -1296,12 +1290,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2020</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1333,12 +1327,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2020</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1370,15 +1364,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2020</v>
       </c>
       <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
       </c>
       <c r="D16" s="11">
         <v>859418</v>
@@ -1412,10 +1406,10 @@
         <v>2020</v>
       </c>
       <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
         <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
       </c>
       <c r="D17" s="11">
         <v>775898</v>
@@ -1449,10 +1443,10 @@
         <v>2020</v>
       </c>
       <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
       </c>
       <c r="D18" s="11">
         <v>1363964</v>
@@ -1486,10 +1480,10 @@
         <v>2020</v>
       </c>
       <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
       </c>
       <c r="D19" s="11">
         <v>1169788</v>
@@ -1523,10 +1517,10 @@
         <v>2020</v>
       </c>
       <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
         <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
       </c>
       <c r="D20" s="11">
         <v>340236</v>
@@ -1560,7 +1554,7 @@
         <v>2020</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1597,10 +1591,10 @@
         <v>2020</v>
       </c>
       <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
         <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
       </c>
       <c r="D22" s="11">
         <v>699001</v>
@@ -1634,7 +1628,7 @@
         <v>2020</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -1671,10 +1665,10 @@
         <v>2020</v>
       </c>
       <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
         <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
       </c>
       <c r="D24" s="11">
         <v>1474820</v>
@@ -1709,10 +1703,10 @@
         <v>2020</v>
       </c>
       <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
         <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
       </c>
       <c r="D25" s="11">
         <v>806832</v>
@@ -1746,10 +1740,10 @@
         <v>2020</v>
       </c>
       <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
         <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
       </c>
       <c r="D26" s="11">
         <v>1723982</v>
@@ -1783,10 +1777,10 @@
         <v>2020</v>
       </c>
       <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
       </c>
       <c r="D27" s="11">
         <v>339169</v>
@@ -1820,10 +1814,10 @@
         <v>2020</v>
       </c>
       <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
         <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
       </c>
       <c r="D28" s="11">
         <v>585234</v>
@@ -1857,10 +1851,10 @@
         <v>2020</v>
       </c>
       <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
         <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>62</v>
       </c>
       <c r="D29" s="11">
         <v>633827</v>
@@ -1894,10 +1888,10 @@
         <v>2020</v>
       </c>
       <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
         <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
       </c>
       <c r="D30" s="11">
         <v>354045</v>
@@ -1931,10 +1925,10 @@
         <v>2020</v>
       </c>
       <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
         <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
       </c>
       <c r="D31" s="11">
         <v>1843047</v>
@@ -1968,10 +1962,10 @@
         <v>2020</v>
       </c>
       <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
         <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
       </c>
       <c r="D32" s="11">
         <v>407786</v>
@@ -2005,10 +1999,10 @@
         <v>2020</v>
       </c>
       <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
         <v>69</v>
-      </c>
-      <c r="C33" t="s">
-        <v>70</v>
       </c>
       <c r="D33" s="11">
         <v>2691583</v>
@@ -2042,7 +2036,7 @@
         <v>2020</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -2079,10 +2073,10 @@
         <v>2020</v>
       </c>
       <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
         <v>72</v>
-      </c>
-      <c r="C35" t="s">
-        <v>73</v>
       </c>
       <c r="D35" s="11">
         <v>245229</v>
@@ -2116,7 +2110,7 @@
         <v>2020</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -2153,10 +2147,10 @@
         <v>2020</v>
       </c>
       <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
         <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>76</v>
       </c>
       <c r="D37" s="11">
         <v>1044175</v>
@@ -2190,10 +2184,10 @@
         <v>2020</v>
       </c>
       <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
         <v>77</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
       </c>
       <c r="D38" s="11">
         <v>966786</v>
@@ -2227,7 +2221,7 @@
         <v>2020</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -2264,10 +2258,10 @@
         <v>2020</v>
       </c>
       <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
         <v>80</v>
-      </c>
-      <c r="C40" t="s">
-        <v>81</v>
       </c>
       <c r="D40" s="11">
         <v>109894</v>
@@ -2301,10 +2295,10 @@
         <v>2020</v>
       </c>
       <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
         <v>82</v>
-      </c>
-      <c r="C41" t="s">
-        <v>83</v>
       </c>
       <c r="D41" s="11">
         <v>1412684</v>
@@ -2338,10 +2332,10 @@
         <v>2020</v>
       </c>
       <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
         <v>84</v>
-      </c>
-      <c r="C42" t="s">
-        <v>85</v>
       </c>
       <c r="D42" s="11">
         <v>321984</v>
@@ -2375,10 +2369,10 @@
         <v>2020</v>
       </c>
       <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
         <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>87</v>
       </c>
       <c r="D43" s="11">
         <v>1685255</v>
@@ -2412,7 +2406,7 @@
         <v>2020</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -2449,10 +2443,10 @@
         <v>2020</v>
       </c>
       <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
         <v>89</v>
-      </c>
-      <c r="C45" t="s">
-        <v>90</v>
       </c>
       <c r="D45" s="11">
         <v>873347</v>
@@ -2486,10 +2480,10 @@
         <v>2020</v>
       </c>
       <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
         <v>91</v>
-      </c>
-      <c r="C46" t="s">
-        <v>92</v>
       </c>
       <c r="D46" s="11">
         <v>95830</v>
@@ -2523,7 +2517,7 @@
         <v>2020</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -2560,10 +2554,10 @@
         <v>2020</v>
       </c>
       <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
         <v>94</v>
-      </c>
-      <c r="C48" t="s">
-        <v>95</v>
       </c>
       <c r="D48" s="11">
         <v>1545436</v>
@@ -2597,10 +2591,10 @@
         <v>2020</v>
       </c>
       <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
         <v>96</v>
-      </c>
-      <c r="C49" t="s">
-        <v>97</v>
       </c>
       <c r="D49" s="11">
         <v>514268</v>
@@ -2634,7 +2628,7 @@
         <v>2020</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -2671,10 +2665,10 @@
         <v>2020</v>
       </c>
       <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
         <v>99</v>
-      </c>
-      <c r="C51" t="s">
-        <v>100</v>
       </c>
       <c r="D51" s="11">
         <v>185732</v>
@@ -2704,7 +2698,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:T51">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:R51">
     <sortCondition ref="B4:B51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/elections/not_imputed/Congressional Elections (2020).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2020).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7C822B-01C5-A343-8440-B2F88648223C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773D19AD-E589-7840-A37B-C70E2D9CC030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="580" windowWidth="23580" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="8500" windowWidth="23580" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
@@ -380,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -404,22 +404,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -435,7 +419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,12 +429,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,30 +453,27 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -790,10 +765,10 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:M1048576"/>
+      <selection pane="bottomRight" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,18 +776,18 @@
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -821,16 +796,16 @@
       <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>106</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -856,20 +831,20 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>1416012</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="9">
         <v>608809</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="9">
         <f t="shared" ref="F2" si="0">G2-E2-D2</f>
         <v>26838</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="9">
         <v>2051659</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="10">
         <f t="shared" ref="H2:H51" si="1">K2-I2-J2</f>
         <v>6</v>
       </c>
@@ -879,7 +854,7 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="7">
         <v>7</v>
       </c>
     </row>
@@ -893,20 +868,20 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>192126</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <v>159856</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="9">
         <f t="shared" ref="F3:F51" si="2">G3-E3-D3</f>
         <v>1183</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="9">
         <v>353165</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -916,7 +891,7 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="7">
         <v>1</v>
       </c>
     </row>
@@ -930,20 +905,20 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>1638516</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>1629318</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="9">
         <f t="shared" si="2"/>
         <v>415</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="9">
         <v>3268249</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -953,7 +928,7 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="7">
         <v>9</v>
       </c>
     </row>
@@ -967,20 +942,20 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>828266</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <v>330485</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="9">
         <f t="shared" si="2"/>
         <v>20645</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="9">
         <v>1179396</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -990,7 +965,7 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1004,20 +979,20 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>5640667</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <v>11084234</v>
       </c>
-      <c r="F6" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F6" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
         <v>16724901</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="10">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -1027,7 +1002,7 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="7">
         <v>53</v>
       </c>
     </row>
@@ -1041,20 +1016,20 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>1378248</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>1679052</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="9">
         <f t="shared" si="2"/>
         <v>107650</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <v>3164950</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1064,7 +1039,7 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="7">
         <v>7</v>
       </c>
     </row>
@@ -1078,20 +1053,20 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>676650</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>1022792</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="9">
         <f t="shared" si="2"/>
         <v>73485</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="9">
         <v>1772927</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1101,7 +1076,7 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1115,20 +1090,20 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>196392</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>281382</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="9">
         <f t="shared" si="2"/>
         <v>10496</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="9">
         <v>488270</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1138,7 +1113,7 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1152,20 +1127,20 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>5469164</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>4942287</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="9">
         <f t="shared" si="2"/>
         <v>53340</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="9">
         <v>10464791</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -1175,7 +1150,7 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="7">
         <v>27</v>
       </c>
     </row>
@@ -1189,20 +1164,20 @@
       <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>2490396</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <v>2393089</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="9">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="9">
         <v>4883611</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -1212,7 +1187,7 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="7">
         <v>14</v>
       </c>
     </row>
@@ -1226,20 +1201,20 @@
       <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>155215</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="9">
         <v>354762</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="9">
         <f t="shared" si="2"/>
         <v>69807</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="9">
         <v>579784</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1249,7 +1224,7 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1263,20 +1238,20 @@
       <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>561405</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="9">
         <v>255531</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="9">
         <f t="shared" si="2"/>
         <v>32973</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="9">
         <v>849909</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1286,7 +1261,7 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1300,20 +1275,20 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>2416929</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>3355487</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="9">
         <f t="shared" si="2"/>
         <v>104403</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="9">
         <v>5876819</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1323,7 +1298,7 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="7">
         <v>18</v>
       </c>
     </row>
@@ -1337,20 +1312,20 @@
       <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>1738745</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="9">
         <v>1194901</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="9">
         <f t="shared" si="2"/>
         <v>62798</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="9">
         <v>2996444</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -1360,7 +1335,7 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1374,20 +1349,20 @@
       <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>859418</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="9">
         <v>762271</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="9">
         <f t="shared" si="2"/>
         <v>78579</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="9">
         <v>1700268</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1397,7 +1372,7 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1411,20 +1386,20 @@
       <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <v>775898</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="9">
         <v>557258</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="9">
         <f t="shared" si="2"/>
         <v>25797</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="9">
         <v>1358953</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1434,7 +1409,7 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1448,20 +1423,20 @@
       <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="8">
         <v>1363964</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="9">
         <v>735419</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="9">
         <f t="shared" si="2"/>
         <v>16512</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="9">
         <v>2115895</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1471,7 +1446,7 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="7">
         <v>6</v>
       </c>
     </row>
@@ -1485,20 +1460,20 @@
       <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="8">
         <v>1169788</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="9">
         <v>727402</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="9">
         <f t="shared" si="2"/>
         <v>49945</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="9">
         <v>1947135</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1508,7 +1483,7 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="7">
         <v>6</v>
       </c>
     </row>
@@ -1522,20 +1497,20 @@
       <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="8">
         <v>340236</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="9">
         <v>468978</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="9">
         <f t="shared" si="2"/>
         <v>19091</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="9">
         <v>828305</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1545,7 +1520,7 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1559,20 +1534,20 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>1028150</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="9">
         <v>1912740</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="9">
         <f t="shared" si="2"/>
         <v>13280</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="9">
         <v>2954170</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1582,7 +1557,7 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="7">
         <v>8</v>
       </c>
     </row>
@@ -1596,20 +1571,20 @@
       <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>699001</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="9">
         <v>2482596</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="9">
         <f t="shared" si="2"/>
         <v>476408</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="9">
         <v>3658005</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1619,7 +1594,7 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1633,20 +1608,20 @@
       <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <v>2617881</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="9">
         <v>2688527</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="9">
         <f t="shared" si="2"/>
         <v>116732</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="9">
         <v>5423140</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -1656,7 +1631,7 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="7">
         <v>14</v>
       </c>
     </row>
@@ -1670,21 +1645,21 @@
       <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="8">
         <v>1474820</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="9">
         <f>1097777+456596</f>
         <v>1554373</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="9">
         <f t="shared" si="2"/>
         <v>164616</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="9">
         <v>3193809</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -1694,7 +1669,7 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="7">
         <v>8</v>
       </c>
     </row>
@@ -1708,20 +1683,20 @@
       <c r="C25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="8">
         <v>806832</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="9">
         <v>421014</v>
       </c>
-      <c r="F25" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="12">
+      <c r="F25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
         <v>1227846</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1731,7 +1706,7 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1745,20 +1720,20 @@
       <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="8">
         <v>1723982</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="9">
         <v>1172135</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="9">
         <f t="shared" si="2"/>
         <v>77304</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="9">
         <v>2973421</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -1768,7 +1743,7 @@
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="7">
         <v>8</v>
       </c>
     </row>
@@ -1782,20 +1757,20 @@
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="8">
         <v>339169</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="9">
         <v>262340</v>
       </c>
-      <c r="F27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="12">
+      <c r="F27" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
         <v>601509</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1805,7 +1780,7 @@
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1819,20 +1794,20 @@
       <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="8">
         <v>585234</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="9">
         <v>326018</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="9">
         <f t="shared" si="2"/>
         <v>30046</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="9">
         <v>941298</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1842,7 +1817,7 @@
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1856,20 +1831,20 @@
       <c r="C29" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="8">
         <v>633827</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="9">
         <v>665526</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="9">
         <f t="shared" si="2"/>
         <v>56254</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="9">
         <v>1355607</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1879,7 +1854,7 @@
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1893,20 +1868,20 @@
       <c r="C30" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="8">
         <v>354045</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="9">
         <v>413895</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="9">
         <f t="shared" si="2"/>
         <v>19162</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="9">
         <v>787102</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1916,7 +1891,7 @@
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1930,20 +1905,20 @@
       <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="8">
         <v>1843047</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="9">
         <v>2539128</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="9">
         <f t="shared" si="2"/>
         <v>50748</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="9">
         <v>4432923</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1953,7 +1928,7 @@
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="7">
         <v>12</v>
       </c>
     </row>
@@ -1967,20 +1942,20 @@
       <c r="C32" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="8">
         <v>407786</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="9">
         <v>495781</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="9">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="9">
         <v>903684</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1990,7 +1965,7 @@
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="7">
         <v>3</v>
       </c>
     </row>
@@ -2004,20 +1979,20 @@
       <c r="C33" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="8">
         <v>2691583</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="9">
         <v>4716619</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="9">
         <f t="shared" si="2"/>
         <v>1196227</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="9">
         <v>8604429</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -2027,7 +2002,7 @@
       <c r="J33">
         <v>0</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="7">
         <v>27</v>
       </c>
     </row>
@@ -2041,20 +2016,20 @@
       <c r="C34" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="8">
         <v>2631336</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <v>2660535</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="9">
         <f t="shared" si="2"/>
         <v>33374</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <v>5325245</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -2064,7 +2039,7 @@
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="7">
         <v>13</v>
       </c>
     </row>
@@ -2078,20 +2053,20 @@
       <c r="C35" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="8">
         <v>245229</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="9">
         <v>97970</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="9">
         <f t="shared" si="2"/>
         <v>12399</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="9">
         <v>355598</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2101,7 +2076,7 @@
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2115,20 +2090,20 @@
       <c r="C36" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="8">
         <v>3252887</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="9">
         <v>2451500</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="9">
         <f t="shared" si="2"/>
         <v>57153</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="9">
         <v>5761540</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="10">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -2138,7 +2113,7 @@
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2152,20 +2127,20 @@
       <c r="C37" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="8">
         <v>1044175</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="9">
         <v>475731</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="9">
         <f t="shared" si="2"/>
         <v>31477</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="9">
         <v>1551383</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -2175,7 +2150,7 @@
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="7">
         <v>5</v>
       </c>
     </row>
@@ -2189,20 +2164,20 @@
       <c r="C38" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="8">
         <v>966786</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="9">
         <v>1285339</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="9">
         <f t="shared" si="2"/>
         <v>56064</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="9">
         <v>2308189</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2212,7 +2187,7 @@
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="7">
         <v>5</v>
       </c>
     </row>
@@ -2226,20 +2201,20 @@
       <c r="C39" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="8">
         <v>3432595</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="9">
         <v>3346712</v>
       </c>
-      <c r="F39" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="12">
+      <c r="F39" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="9">
         <v>6779307</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="10">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -2249,7 +2224,7 @@
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="7">
         <v>18</v>
       </c>
     </row>
@@ -2263,20 +2238,20 @@
       <c r="C40" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="8">
         <v>109894</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="9">
         <v>312636</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="9">
         <f t="shared" si="2"/>
         <v>65887</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="9">
         <v>488417</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2286,7 +2261,7 @@
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="7">
         <v>2</v>
       </c>
     </row>
@@ -2300,20 +2275,20 @@
       <c r="C41" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="8">
         <v>1412684</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="9">
         <v>1076799</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="9">
         <f t="shared" si="2"/>
         <v>15959</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="9">
         <v>2505442</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -2323,7 +2298,7 @@
       <c r="J41">
         <v>0</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="7">
         <v>7</v>
       </c>
     </row>
@@ -2337,20 +2312,20 @@
       <c r="C42" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="8">
         <v>321984</v>
       </c>
-      <c r="E42" s="12">
-        <v>0</v>
-      </c>
-      <c r="F42" s="13">
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9">
         <f t="shared" si="2"/>
         <v>75748</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="9">
         <v>397732</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2360,7 +2335,7 @@
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2374,20 +2349,20 @@
       <c r="C43" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="8">
         <v>1685255</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="9">
         <v>1105537</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="9">
         <f t="shared" si="2"/>
         <v>50952</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="9">
         <v>2841744</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -2397,7 +2372,7 @@
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="7">
         <v>9</v>
       </c>
     </row>
@@ -2411,20 +2386,20 @@
       <c r="C44" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="8">
         <v>5926712</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="9">
         <v>4896673</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="9">
         <f t="shared" si="2"/>
         <v>270241</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="9">
         <v>11093626</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="10">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
@@ -2434,7 +2409,7 @@
       <c r="J44">
         <v>0</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="7">
         <v>36</v>
       </c>
     </row>
@@ -2448,20 +2423,20 @@
       <c r="C45" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="8">
         <v>873347</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="9">
         <v>505946</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="9">
         <f t="shared" si="2"/>
         <v>52939</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="9">
         <v>1432232</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2471,7 +2446,7 @@
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="7">
         <v>4</v>
       </c>
     </row>
@@ -2485,20 +2460,20 @@
       <c r="C46" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="8">
         <v>95830</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="9">
         <v>238827</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="9">
         <f t="shared" si="2"/>
         <v>36311</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="9">
         <v>370968</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2508,7 +2483,7 @@
       <c r="J46">
         <v>0</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2522,20 +2497,20 @@
       <c r="C47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="8">
         <v>2047635</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="9">
         <v>2253974</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="9">
         <f t="shared" si="2"/>
         <v>33827</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="9">
         <v>4335436</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2545,7 +2520,7 @@
       <c r="J47">
         <v>0</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2559,20 +2534,20 @@
       <c r="C48" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="8">
         <v>1545436</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="9">
         <v>2340356</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="9">
         <f t="shared" si="2"/>
         <v>58441</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="9">
         <v>3944233</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -2582,7 +2557,7 @@
       <c r="J48">
         <v>0</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="7">
         <v>10</v>
       </c>
     </row>
@@ -2596,20 +2571,20 @@
       <c r="C49" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="8">
         <v>514268</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="9">
         <v>246903</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="9">
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="9">
         <v>761385</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -2619,7 +2594,7 @@
       <c r="J49">
         <v>0</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="7">
         <v>3</v>
       </c>
     </row>
@@ -2633,20 +2608,20 @@
       <c r="C50" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="8">
         <v>1661399</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="9">
         <v>1566671</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="9">
         <f t="shared" si="2"/>
         <v>9981</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="9">
         <v>3238051</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -2656,7 +2631,7 @@
       <c r="J50">
         <v>0</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="7">
         <v>8</v>
       </c>
     </row>
@@ -2670,20 +2645,20 @@
       <c r="C51" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="8">
         <v>185732</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="9">
         <v>66576</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="9">
         <f t="shared" si="2"/>
         <v>26195</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="9">
         <v>278503</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2693,7 +2668,7 @@
       <c r="J51">
         <v>0</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="7">
         <v>1</v>
       </c>
     </row>

--- a/data/elections/not_imputed/Congressional Elections (2020).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2020).xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10104"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773D19AD-E589-7840-A37B-C70E2D9CC030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21D2DEA-88B7-D741-94BF-803CEEA142B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="8500" windowWidth="23580" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="2460" windowWidth="23580" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
+    <sheet name="UPDATED" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$K$1:$K$51</definedName>
+    <definedName name="Congressional_Elections__2020" localSheetId="1">UPDATED!$A$1:$J$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +42,29 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{63C7E721-9A4F-C741-B984-2CE2141D7568}" name="Congressional Elections (2020)" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/Congressional Elections (2020).csv" comma="1">
+      <textFields count="10">
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="113">
   <si>
     <t>PA</t>
   </si>
@@ -374,13 +397,19 @@
   </si>
   <si>
     <t>TOT_S</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Vote share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,6 +447,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -451,7 +487,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -461,8 +497,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -474,8 +511,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -485,6 +524,7 @@
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="9" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -497,6 +537,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Congressional Elections (2020)" connectionId="1" xr16:uid="{94FCF9E4-47B1-9248-9F0B-1585999D44FA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -762,13 +806,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:K1"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -838,14 +882,12 @@
         <v>608809</v>
       </c>
       <c r="F2" s="9">
-        <f t="shared" ref="F2" si="0">G2-E2-D2</f>
         <v>26838</v>
       </c>
       <c r="G2" s="9">
         <v>2051659</v>
       </c>
       <c r="H2" s="10">
-        <f t="shared" ref="H2:H51" si="1">K2-I2-J2</f>
         <v>6</v>
       </c>
       <c r="I2">
@@ -875,14 +917,12 @@
         <v>159856</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:F51" si="2">G3-E3-D3</f>
         <v>1183</v>
       </c>
       <c r="G3" s="9">
         <v>353165</v>
       </c>
       <c r="H3" s="10">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I3">
@@ -912,14 +952,12 @@
         <v>1629318</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" si="2"/>
         <v>415</v>
       </c>
       <c r="G4" s="9">
         <v>3268249</v>
       </c>
       <c r="H4" s="10">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I4">
@@ -949,14 +987,12 @@
         <v>330485</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" si="2"/>
         <v>20645</v>
       </c>
       <c r="G5" s="9">
         <v>1179396</v>
       </c>
       <c r="H5" s="10">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I5">
@@ -986,14 +1022,12 @@
         <v>11084234</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="9">
         <v>16724901</v>
       </c>
       <c r="H6" s="10">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I6">
@@ -1023,14 +1057,12 @@
         <v>1679052</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="2"/>
         <v>107650</v>
       </c>
       <c r="G7" s="9">
         <v>3164950</v>
       </c>
       <c r="H7" s="10">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I7">
@@ -1060,14 +1092,12 @@
         <v>1022792</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="2"/>
         <v>73485</v>
       </c>
       <c r="G8" s="9">
         <v>1772927</v>
       </c>
       <c r="H8" s="10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8">
@@ -1097,14 +1127,12 @@
         <v>281382</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="2"/>
         <v>10496</v>
       </c>
       <c r="G9" s="9">
         <v>488270</v>
       </c>
       <c r="H9" s="10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9">
@@ -1134,14 +1162,12 @@
         <v>4942287</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" si="2"/>
         <v>53340</v>
       </c>
       <c r="G10" s="9">
         <v>10464791</v>
       </c>
       <c r="H10" s="10">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I10">
@@ -1171,14 +1197,12 @@
         <v>2393089</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="G11" s="9">
         <v>4883611</v>
       </c>
       <c r="H11" s="10">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I11">
@@ -1208,14 +1232,12 @@
         <v>354762</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="2"/>
         <v>69807</v>
       </c>
       <c r="G12" s="9">
         <v>579784</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12">
@@ -1245,14 +1267,12 @@
         <v>255531</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="2"/>
         <v>32973</v>
       </c>
       <c r="G13" s="9">
         <v>849909</v>
       </c>
       <c r="H13" s="10">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13">
@@ -1282,14 +1302,12 @@
         <v>3355487</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="2"/>
         <v>104403</v>
       </c>
       <c r="G14" s="9">
         <v>5876819</v>
       </c>
       <c r="H14" s="10">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I14">
@@ -1319,14 +1337,12 @@
         <v>1194901</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="2"/>
         <v>62798</v>
       </c>
       <c r="G15" s="9">
         <v>2996444</v>
       </c>
       <c r="H15" s="10">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I15">
@@ -1356,14 +1372,12 @@
         <v>762271</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="2"/>
         <v>78579</v>
       </c>
       <c r="G16" s="9">
         <v>1700268</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I16">
@@ -1393,14 +1407,12 @@
         <v>557258</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="2"/>
         <v>25797</v>
       </c>
       <c r="G17" s="9">
         <v>1358953</v>
       </c>
       <c r="H17" s="10">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I17">
@@ -1430,14 +1442,12 @@
         <v>735419</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="2"/>
         <v>16512</v>
       </c>
       <c r="G18" s="9">
         <v>2115895</v>
       </c>
       <c r="H18" s="10">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I18">
@@ -1467,14 +1477,12 @@
         <v>727402</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="2"/>
         <v>49945</v>
       </c>
       <c r="G19" s="9">
         <v>1947135</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I19">
@@ -1504,14 +1512,12 @@
         <v>468978</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" si="2"/>
         <v>19091</v>
       </c>
       <c r="G20" s="9">
         <v>828305</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20">
@@ -1541,14 +1547,12 @@
         <v>1912740</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="2"/>
         <v>13280</v>
       </c>
       <c r="G21" s="9">
         <v>2954170</v>
       </c>
       <c r="H21" s="10">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I21">
@@ -1578,14 +1582,12 @@
         <v>2482596</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="2"/>
         <v>476408</v>
       </c>
       <c r="G22" s="9">
         <v>3658005</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22">
@@ -1615,14 +1617,12 @@
         <v>2688527</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="2"/>
         <v>116732</v>
       </c>
       <c r="G23" s="9">
         <v>5423140</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I23">
@@ -1649,18 +1649,15 @@
         <v>1474820</v>
       </c>
       <c r="E24" s="9">
-        <f>1097777+456596</f>
         <v>1554373</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" si="2"/>
         <v>164616</v>
       </c>
       <c r="G24" s="9">
         <v>3193809</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I24">
@@ -1690,14 +1687,12 @@
         <v>421014</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="9">
         <v>1227846</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I25">
@@ -1727,14 +1722,12 @@
         <v>1172135</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" si="2"/>
         <v>77304</v>
       </c>
       <c r="G26" s="9">
         <v>2973421</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I26">
@@ -1764,14 +1757,12 @@
         <v>262340</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" s="9">
         <v>601509</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I27">
@@ -1801,14 +1792,12 @@
         <v>326018</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" si="2"/>
         <v>30046</v>
       </c>
       <c r="G28" s="9">
         <v>941298</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I28">
@@ -1838,14 +1827,12 @@
         <v>665526</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" si="2"/>
         <v>56254</v>
       </c>
       <c r="G29" s="9">
         <v>1355607</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I29">
@@ -1875,14 +1862,12 @@
         <v>413895</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="2"/>
         <v>19162</v>
       </c>
       <c r="G30" s="9">
         <v>787102</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30">
@@ -1912,14 +1897,12 @@
         <v>2539128</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" si="2"/>
         <v>50748</v>
       </c>
       <c r="G31" s="9">
         <v>4432923</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I31">
@@ -1949,14 +1932,12 @@
         <v>495781</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="G32" s="9">
         <v>903684</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I32">
@@ -1986,14 +1967,12 @@
         <v>4716619</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" si="2"/>
         <v>1196227</v>
       </c>
       <c r="G33" s="9">
         <v>8604429</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I33">
@@ -2023,14 +2002,12 @@
         <v>2660535</v>
       </c>
       <c r="F34" s="9">
-        <f t="shared" si="2"/>
         <v>33374</v>
       </c>
       <c r="G34" s="9">
         <v>5325245</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I34">
@@ -2060,14 +2037,12 @@
         <v>97970</v>
       </c>
       <c r="F35" s="9">
-        <f t="shared" si="2"/>
         <v>12399</v>
       </c>
       <c r="G35" s="9">
         <v>355598</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I35">
@@ -2097,14 +2072,12 @@
         <v>2451500</v>
       </c>
       <c r="F36" s="9">
-        <f t="shared" si="2"/>
         <v>57153</v>
       </c>
       <c r="G36" s="9">
         <v>5761540</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I36">
@@ -2134,14 +2107,12 @@
         <v>475731</v>
       </c>
       <c r="F37" s="9">
-        <f t="shared" si="2"/>
         <v>31477</v>
       </c>
       <c r="G37" s="9">
         <v>1551383</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I37">
@@ -2171,14 +2142,12 @@
         <v>1285339</v>
       </c>
       <c r="F38" s="9">
-        <f t="shared" si="2"/>
         <v>56064</v>
       </c>
       <c r="G38" s="9">
         <v>2308189</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I38">
@@ -2208,14 +2177,12 @@
         <v>3346712</v>
       </c>
       <c r="F39" s="9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="9">
         <v>6779307</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I39">
@@ -2245,14 +2212,12 @@
         <v>312636</v>
       </c>
       <c r="F40" s="9">
-        <f t="shared" si="2"/>
         <v>65887</v>
       </c>
       <c r="G40" s="9">
         <v>488417</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40">
@@ -2282,14 +2247,12 @@
         <v>1076799</v>
       </c>
       <c r="F41" s="9">
-        <f t="shared" si="2"/>
         <v>15959</v>
       </c>
       <c r="G41" s="9">
         <v>2505442</v>
       </c>
       <c r="H41" s="10">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I41">
@@ -2319,14 +2282,12 @@
         <v>0</v>
       </c>
       <c r="F42" s="9">
-        <f t="shared" si="2"/>
         <v>75748</v>
       </c>
       <c r="G42" s="9">
         <v>397732</v>
       </c>
       <c r="H42" s="10">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I42">
@@ -2356,14 +2317,12 @@
         <v>1105537</v>
       </c>
       <c r="F43" s="9">
-        <f t="shared" si="2"/>
         <v>50952</v>
       </c>
       <c r="G43" s="9">
         <v>2841744</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I43">
@@ -2393,14 +2352,12 @@
         <v>4896673</v>
       </c>
       <c r="F44" s="9">
-        <f t="shared" si="2"/>
         <v>270241</v>
       </c>
       <c r="G44" s="9">
         <v>11093626</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I44">
@@ -2430,14 +2387,12 @@
         <v>505946</v>
       </c>
       <c r="F45" s="9">
-        <f t="shared" si="2"/>
         <v>52939</v>
       </c>
       <c r="G45" s="9">
         <v>1432232</v>
       </c>
       <c r="H45" s="10">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I45">
@@ -2467,14 +2422,12 @@
         <v>238827</v>
       </c>
       <c r="F46" s="9">
-        <f t="shared" si="2"/>
         <v>36311</v>
       </c>
       <c r="G46" s="9">
         <v>370968</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I46">
@@ -2504,14 +2457,12 @@
         <v>2253974</v>
       </c>
       <c r="F47" s="9">
-        <f t="shared" si="2"/>
         <v>33827</v>
       </c>
       <c r="G47" s="9">
         <v>4335436</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I47">
@@ -2541,14 +2492,12 @@
         <v>2340356</v>
       </c>
       <c r="F48" s="9">
-        <f t="shared" si="2"/>
         <v>58441</v>
       </c>
       <c r="G48" s="9">
         <v>3944233</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I48">
@@ -2578,14 +2527,12 @@
         <v>246903</v>
       </c>
       <c r="F49" s="9">
-        <f t="shared" si="2"/>
         <v>214</v>
       </c>
       <c r="G49" s="9">
         <v>761385</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I49">
@@ -2615,14 +2562,12 @@
         <v>1566671</v>
       </c>
       <c r="F50" s="9">
-        <f t="shared" si="2"/>
         <v>9981</v>
       </c>
       <c r="G50" s="9">
         <v>3238051</v>
       </c>
       <c r="H50" s="10">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I50">
@@ -2652,14 +2597,12 @@
         <v>66576</v>
       </c>
       <c r="F51" s="9">
-        <f t="shared" si="2"/>
         <v>26195</v>
       </c>
       <c r="G51" s="9">
         <v>278503</v>
       </c>
       <c r="H51" s="10">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I51">
@@ -2670,6 +2613,15 @@
       </c>
       <c r="K51" s="7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="12">
+        <f>SUM(E2:E51)/SUM(D2:E51)</f>
+        <v>0.515562995007944</v>
       </c>
     </row>
   </sheetData>
@@ -2678,4 +2630,1663 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41594267-195E-E749-99A2-79DBF55C36DF}">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1416012</v>
+      </c>
+      <c r="D2">
+        <v>608809</v>
+      </c>
+      <c r="E2">
+        <v>26838</v>
+      </c>
+      <c r="F2">
+        <v>2051659</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>192126</v>
+      </c>
+      <c r="D3">
+        <v>159856</v>
+      </c>
+      <c r="E3">
+        <v>1183</v>
+      </c>
+      <c r="F3">
+        <v>353165</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1638516</v>
+      </c>
+      <c r="D4">
+        <v>1629318</v>
+      </c>
+      <c r="E4">
+        <v>415</v>
+      </c>
+      <c r="F4">
+        <v>3268249</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>828266</v>
+      </c>
+      <c r="D5">
+        <v>330485</v>
+      </c>
+      <c r="E5">
+        <v>20645</v>
+      </c>
+      <c r="F5">
+        <v>1179396</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>5640667</v>
+      </c>
+      <c r="D6">
+        <v>11084234</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>16724901</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>42</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>1378248</v>
+      </c>
+      <c r="D7">
+        <v>1679052</v>
+      </c>
+      <c r="E7">
+        <v>107650</v>
+      </c>
+      <c r="F7">
+        <v>3164950</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>676650</v>
+      </c>
+      <c r="D8">
+        <v>1022792</v>
+      </c>
+      <c r="E8">
+        <v>73485</v>
+      </c>
+      <c r="F8">
+        <v>1772927</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>196392</v>
+      </c>
+      <c r="D9">
+        <v>281382</v>
+      </c>
+      <c r="E9">
+        <v>10496</v>
+      </c>
+      <c r="F9">
+        <v>488270</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>5469164</v>
+      </c>
+      <c r="D10">
+        <v>4942287</v>
+      </c>
+      <c r="E10">
+        <v>53340</v>
+      </c>
+      <c r="F10">
+        <v>10464791</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>2490396</v>
+      </c>
+      <c r="D11">
+        <v>2393089</v>
+      </c>
+      <c r="E11">
+        <v>126</v>
+      </c>
+      <c r="F11">
+        <v>4883611</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>155215</v>
+      </c>
+      <c r="D12">
+        <v>354762</v>
+      </c>
+      <c r="E12">
+        <v>69807</v>
+      </c>
+      <c r="F12">
+        <v>579784</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>561405</v>
+      </c>
+      <c r="D13">
+        <v>255531</v>
+      </c>
+      <c r="E13">
+        <v>32973</v>
+      </c>
+      <c r="F13">
+        <v>849909</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>2416929</v>
+      </c>
+      <c r="D14">
+        <v>3355487</v>
+      </c>
+      <c r="E14">
+        <v>104403</v>
+      </c>
+      <c r="F14">
+        <v>5876819</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1738745</v>
+      </c>
+      <c r="D15">
+        <v>1194901</v>
+      </c>
+      <c r="E15">
+        <v>62798</v>
+      </c>
+      <c r="F15">
+        <v>2996444</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>859418</v>
+      </c>
+      <c r="D16">
+        <v>762271</v>
+      </c>
+      <c r="E16">
+        <v>78579</v>
+      </c>
+      <c r="F16">
+        <v>1700268</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>775898</v>
+      </c>
+      <c r="D17">
+        <v>557258</v>
+      </c>
+      <c r="E17">
+        <v>25797</v>
+      </c>
+      <c r="F17">
+        <v>1358953</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>1363964</v>
+      </c>
+      <c r="D18">
+        <v>735419</v>
+      </c>
+      <c r="E18">
+        <v>16512</v>
+      </c>
+      <c r="F18">
+        <v>2115895</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>1169788</v>
+      </c>
+      <c r="D19">
+        <v>727402</v>
+      </c>
+      <c r="E19">
+        <v>49945</v>
+      </c>
+      <c r="F19">
+        <v>1947135</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>340236</v>
+      </c>
+      <c r="D20">
+        <v>468978</v>
+      </c>
+      <c r="E20">
+        <v>19091</v>
+      </c>
+      <c r="F20">
+        <v>828305</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>1028150</v>
+      </c>
+      <c r="D21">
+        <v>1912740</v>
+      </c>
+      <c r="E21">
+        <v>13280</v>
+      </c>
+      <c r="F21">
+        <v>2954170</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>699001</v>
+      </c>
+      <c r="D22">
+        <v>2482596</v>
+      </c>
+      <c r="E22">
+        <v>476408</v>
+      </c>
+      <c r="F22">
+        <v>3658005</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>2617881</v>
+      </c>
+      <c r="D23">
+        <v>2688527</v>
+      </c>
+      <c r="E23">
+        <v>116732</v>
+      </c>
+      <c r="F23">
+        <v>5423140</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>1474820</v>
+      </c>
+      <c r="D24">
+        <v>1554373</v>
+      </c>
+      <c r="E24">
+        <v>164616</v>
+      </c>
+      <c r="F24">
+        <v>3193809</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>806832</v>
+      </c>
+      <c r="D25">
+        <v>421014</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1227846</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>1723982</v>
+      </c>
+      <c r="D26">
+        <v>1172135</v>
+      </c>
+      <c r="E26">
+        <v>77304</v>
+      </c>
+      <c r="F26">
+        <v>2973421</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>339169</v>
+      </c>
+      <c r="D27">
+        <v>262340</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>601509</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28">
+        <v>585234</v>
+      </c>
+      <c r="D28">
+        <v>326018</v>
+      </c>
+      <c r="E28">
+        <v>30046</v>
+      </c>
+      <c r="F28">
+        <v>941298</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29">
+        <v>633827</v>
+      </c>
+      <c r="D29">
+        <v>665526</v>
+      </c>
+      <c r="E29">
+        <v>56254</v>
+      </c>
+      <c r="F29">
+        <v>1355607</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30">
+        <v>354045</v>
+      </c>
+      <c r="D30">
+        <v>413895</v>
+      </c>
+      <c r="E30">
+        <v>19162</v>
+      </c>
+      <c r="F30">
+        <v>787102</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>1843047</v>
+      </c>
+      <c r="D31">
+        <v>2539128</v>
+      </c>
+      <c r="E31">
+        <v>50748</v>
+      </c>
+      <c r="F31">
+        <v>4432923</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32">
+        <v>407786</v>
+      </c>
+      <c r="D32">
+        <v>495781</v>
+      </c>
+      <c r="E32">
+        <v>117</v>
+      </c>
+      <c r="F32">
+        <v>903684</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33">
+        <v>2691583</v>
+      </c>
+      <c r="D33">
+        <v>4716619</v>
+      </c>
+      <c r="E33">
+        <v>1196227</v>
+      </c>
+      <c r="F33">
+        <v>8604429</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>19</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2631336</v>
+      </c>
+      <c r="D34">
+        <v>2660535</v>
+      </c>
+      <c r="E34">
+        <v>33374</v>
+      </c>
+      <c r="F34">
+        <v>5325245</v>
+      </c>
+      <c r="G34">
+        <v>8</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35">
+        <v>245229</v>
+      </c>
+      <c r="D35">
+        <v>97970</v>
+      </c>
+      <c r="E35">
+        <v>12399</v>
+      </c>
+      <c r="F35">
+        <v>355598</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>3252887</v>
+      </c>
+      <c r="D36">
+        <v>2451500</v>
+      </c>
+      <c r="E36">
+        <v>57153</v>
+      </c>
+      <c r="F36">
+        <v>5761540</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>1044175</v>
+      </c>
+      <c r="D37">
+        <v>475731</v>
+      </c>
+      <c r="E37">
+        <v>31477</v>
+      </c>
+      <c r="F37">
+        <v>1551383</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38">
+        <v>966786</v>
+      </c>
+      <c r="D38">
+        <v>1285339</v>
+      </c>
+      <c r="E38">
+        <v>56064</v>
+      </c>
+      <c r="F38">
+        <v>2308189</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>3432595</v>
+      </c>
+      <c r="D39">
+        <v>3346712</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>6779307</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40">
+        <v>109894</v>
+      </c>
+      <c r="D40">
+        <v>312636</v>
+      </c>
+      <c r="E40">
+        <v>65887</v>
+      </c>
+      <c r="F40">
+        <v>488417</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41">
+        <v>1412684</v>
+      </c>
+      <c r="D41">
+        <v>1076799</v>
+      </c>
+      <c r="E41">
+        <v>15959</v>
+      </c>
+      <c r="F41">
+        <v>2505442</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42">
+        <v>321984</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>75748</v>
+      </c>
+      <c r="F42">
+        <v>397732</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43">
+        <v>1685255</v>
+      </c>
+      <c r="D43">
+        <v>1105537</v>
+      </c>
+      <c r="E43">
+        <v>50952</v>
+      </c>
+      <c r="F43">
+        <v>2841744</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>5926712</v>
+      </c>
+      <c r="D44">
+        <v>4896673</v>
+      </c>
+      <c r="E44">
+        <v>270241</v>
+      </c>
+      <c r="F44">
+        <v>11093626</v>
+      </c>
+      <c r="G44">
+        <v>23</v>
+      </c>
+      <c r="H44">
+        <v>13</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45">
+        <v>873347</v>
+      </c>
+      <c r="D45">
+        <v>505946</v>
+      </c>
+      <c r="E45">
+        <v>52939</v>
+      </c>
+      <c r="F45">
+        <v>1432232</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46">
+        <v>95830</v>
+      </c>
+      <c r="D46">
+        <v>238827</v>
+      </c>
+      <c r="E46">
+        <v>36311</v>
+      </c>
+      <c r="F46">
+        <v>370968</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>2047635</v>
+      </c>
+      <c r="D47">
+        <v>2253974</v>
+      </c>
+      <c r="E47">
+        <v>33827</v>
+      </c>
+      <c r="F47">
+        <v>4335436</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48">
+        <v>1545436</v>
+      </c>
+      <c r="D48">
+        <v>2340356</v>
+      </c>
+      <c r="E48">
+        <v>58441</v>
+      </c>
+      <c r="F48">
+        <v>3944233</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49">
+        <v>514268</v>
+      </c>
+      <c r="D49">
+        <v>246903</v>
+      </c>
+      <c r="E49">
+        <v>214</v>
+      </c>
+      <c r="F49">
+        <v>761385</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>1661399</v>
+      </c>
+      <c r="D50">
+        <v>1566671</v>
+      </c>
+      <c r="E50">
+        <v>9981</v>
+      </c>
+      <c r="F50">
+        <v>3238051</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51">
+        <v>185732</v>
+      </c>
+      <c r="D51">
+        <v>66576</v>
+      </c>
+      <c r="E51">
+        <v>26195</v>
+      </c>
+      <c r="F51">
+        <v>278503</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>